--- a/labs/Week 2 Lesson 1 - Visualisation/iris_saved.xlsx
+++ b/labs/Week 2 Lesson 1 - Visualisation/iris_saved.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamfawcett/Desktop/DAT8SYD/labs/Week 2 Lesson 1 - Visualisation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,12 +172,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,14 +204,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -219,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,12 +439,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -438,12 +459,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -458,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -478,12 +499,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C5">
         <v>3.1</v>
@@ -498,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -518,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -538,12 +559,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C8">
         <v>3.4</v>
@@ -558,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -578,12 +599,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C10">
         <v>2.9</v>
@@ -598,12 +619,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C11">
         <v>3.1</v>
@@ -618,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -638,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -658,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -678,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -689,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -698,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -718,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,7 +747,7 @@
         <v>5.7</v>
       </c>
       <c r="C17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D17">
         <v>1.5</v>
@@ -738,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -758,12 +779,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C19">
         <v>3.5</v>
@@ -778,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -798,12 +819,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21">
         <v>3.8</v>
@@ -818,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -838,12 +859,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23">
         <v>3.7</v>
@@ -858,12 +879,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C24">
         <v>3.6</v>
@@ -878,12 +899,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C25">
         <v>3.3</v>
@@ -898,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -918,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -938,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -958,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -978,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -998,7 +1019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1038,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>5.2</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D34">
         <v>1.5</v>
@@ -1078,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1098,12 +1119,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C36">
         <v>3.1</v>
@@ -1118,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1158,12 +1179,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C39">
         <v>3.1</v>
@@ -1178,12 +1199,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1198,12 +1219,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C41">
         <v>3.4</v>
@@ -1218,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1238,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,7 +1267,7 @@
         <v>4.5</v>
       </c>
       <c r="C43">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D43">
         <v>1.3</v>
@@ -1258,12 +1279,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C44">
         <v>3.2</v>
@@ -1278,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1298,12 +1319,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C46">
         <v>3.8</v>
@@ -1318,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1338,12 +1359,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C48">
         <v>3.8</v>
@@ -1358,12 +1379,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C49">
         <v>3.2</v>
@@ -1378,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1418,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1458,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1469,7 +1490,7 @@
         <v>3.1</v>
       </c>
       <c r="D54">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E54">
         <v>1.5</v>
@@ -1478,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>5.5</v>
       </c>
       <c r="C55">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1498,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>2.8</v>
       </c>
       <c r="D56">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E56">
         <v>1.5</v>
@@ -1518,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1558,12 +1579,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C59">
         <v>2.4</v>
@@ -1578,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1589,7 +1610,7 @@
         <v>2.9</v>
       </c>
       <c r="D60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E60">
         <v>1.3</v>
@@ -1598,7 +1619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1658,7 +1679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="C64">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1678,7 +1699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1698,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>3.1</v>
       </c>
       <c r="D67">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E67">
         <v>1.4</v>
@@ -1738,7 +1759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1758,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1769,7 +1790,7 @@
         <v>2.7</v>
       </c>
       <c r="D69">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -1778,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,7 +1807,7 @@
         <v>6.2</v>
       </c>
       <c r="C70">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D70">
         <v>4.5</v>
@@ -1798,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1812,13 +1833,13 @@
         <v>3.9</v>
       </c>
       <c r="E71">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1858,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1869,7 +1890,7 @@
         <v>2.5</v>
       </c>
       <c r="D74">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E74">
         <v>1.5</v>
@@ -1878,7 +1899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1918,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1929,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E77">
         <v>1.4</v>
@@ -1938,7 +1959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1958,7 +1979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1978,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1998,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2018,7 +2039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2032,13 +2053,13 @@
         <v>3.8</v>
       </c>
       <c r="E82">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2078,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2089,7 +2110,7 @@
         <v>2.7</v>
       </c>
       <c r="D85">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E85">
         <v>1.6</v>
@@ -2098,7 +2119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2138,7 +2159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2187,10 @@
         <v>6.3</v>
       </c>
       <c r="C89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D89">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E89">
         <v>1.3</v>
@@ -2178,7 +2199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2189,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E90">
         <v>1.3</v>
@@ -2198,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2218,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2229,7 +2250,7 @@
         <v>2.6</v>
       </c>
       <c r="D92">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E92">
         <v>1.2</v>
@@ -2238,7 +2259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2249,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E93">
         <v>1.4</v>
@@ -2258,7 +2279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D95">
         <v>3.3</v>
@@ -2298,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2318,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2338,7 +2359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2358,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2378,12 +2399,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C100">
         <v>2.5</v>
@@ -2392,13 +2413,13 @@
         <v>3</v>
       </c>
       <c r="E100">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2409,7 +2430,7 @@
         <v>2.8</v>
       </c>
       <c r="D101">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E101">
         <v>1.3</v>
@@ -2418,7 +2439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2438,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>2.7</v>
       </c>
       <c r="D103">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E103">
         <v>1.9</v>
@@ -2458,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2478,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2498,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2512,13 +2533,13 @@
         <v>5.8</v>
       </c>
       <c r="E106">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2538,12 +2559,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C108">
         <v>2.5</v>
@@ -2558,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2578,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2598,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2618,7 +2639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2629,7 +2650,7 @@
         <v>3.2</v>
       </c>
       <c r="D112">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -2638,7 +2659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2658,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2678,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2698,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2709,7 +2730,7 @@
         <v>2.8</v>
       </c>
       <c r="D116">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E116">
         <v>2.4</v>
@@ -2718,7 +2739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2732,13 +2753,13 @@
         <v>5.3</v>
       </c>
       <c r="E117">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2758,7 +2779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2772,13 +2793,13 @@
         <v>6.7</v>
       </c>
       <c r="E119">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2792,13 +2813,13 @@
         <v>6.9</v>
       </c>
       <c r="E120">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,7 +2827,7 @@
         <v>6</v>
       </c>
       <c r="C121">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -2818,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2832,13 +2853,13 @@
         <v>5.7</v>
       </c>
       <c r="E122">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2849,7 +2870,7 @@
         <v>2.8</v>
       </c>
       <c r="D123">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -2858,7 +2879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2878,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2889,7 +2910,7 @@
         <v>2.7</v>
       </c>
       <c r="D125">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E125">
         <v>1.8</v>
@@ -2898,7 +2919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2918,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2958,7 +2979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2969,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E129">
         <v>1.8</v>
@@ -2978,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3018,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3038,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3058,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3072,13 +3093,13 @@
         <v>5.6</v>
       </c>
       <c r="E134">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3089,7 +3110,7 @@
         <v>2.8</v>
       </c>
       <c r="D135">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E135">
         <v>1.5</v>
@@ -3098,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3118,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3132,13 +3153,13 @@
         <v>6.1</v>
       </c>
       <c r="E137">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3158,7 +3179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3178,7 +3199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3198,7 +3219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3218,7 +3239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3238,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3249,16 +3270,16 @@
         <v>3.1</v>
       </c>
       <c r="D143">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E143">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3269,7 +3290,7 @@
         <v>2.7</v>
       </c>
       <c r="D144">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E144">
         <v>1.9</v>
@@ -3278,7 +3299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3292,13 +3313,13 @@
         <v>5.9</v>
       </c>
       <c r="E145">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3318,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3332,13 +3353,13 @@
         <v>5.2</v>
       </c>
       <c r="E147">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3358,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3378,7 +3399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3392,13 +3413,13 @@
         <v>5.4</v>
       </c>
       <c r="E150">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3409,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E151">
         <v>1.8</v>
@@ -3421,4 +3442,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>